--- a/kanka/JS_API.xlsx
+++ b/kanka/JS_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>参数描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,14 @@
 20:心理测评首页(android)
 21:心理测评详情页(android)
 30:心理咨询首页(iOS&amp;android)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内含cookies字段为cookieStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -495,6 +503,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -843,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J2"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -854,104 +865,105 @@
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -972,6 +984,9 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
@@ -992,6 +1007,9 @@
       <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
@@ -1014,16 +1032,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1034,10 +1052,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1046,10 +1064,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1058,8 +1076,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1074,8 +1092,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="26" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1110,10 +1128,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1122,24 +1140,24 @@
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
@@ -1162,10 +1180,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1174,48 +1192,48 @@
       <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
@@ -1258,10 +1276,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="120">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>10</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1270,36 +1288,36 @@
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4">
@@ -1322,10 +1340,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>12</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1334,72 +1352,72 @@
       <c r="D31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="60">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="97" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="60">
       <c r="A37" s="4">

--- a/kanka/JS_API.xlsx
+++ b/kanka/JS_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24880" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -393,6 +393,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内含cookies字段为cookieStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>跳转页面类型
 1:外链(非App的H5)
 2:App的H5
@@ -401,19 +409,11 @@
   </si>
   <si>
     <t>页面ID
-10:心理学院(android)
-11:音频播放界面(android)
-20:心理测评首页(android)
-21:心理测评详情页(android)
-30:心理咨询首页(iOS&amp;android)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内含cookies字段为cookieStr</t>
+10:心理学院
+11:音频播放界面
+20:心理测评首页
+21:心理测评详情页
+30:心理咨询首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +509,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -870,100 +870,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1008,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1032,13 +1032,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1052,9 +1052,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
@@ -1064,9 +1064,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="6" t="s">
         <v>21</v>
@@ -1076,8 +1076,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1092,8 +1092,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="26" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1128,10 +1128,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>5</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1140,24 +1140,24 @@
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
@@ -1180,10 +1180,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1192,48 +1192,48 @@
       <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
@@ -1276,10 +1276,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="120">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>10</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1288,36 +1288,36 @@
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4">
@@ -1340,10 +1340,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>12</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1352,72 +1352,72 @@
       <c r="D31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="60">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="97" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="60">
       <c r="A37" s="4">
@@ -1684,6 +1684,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:E5"/>
@@ -1694,30 +1718,6 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kanka/JS_API.xlsx
+++ b/kanka/JS_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24880" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,18 @@
   </si>
   <si>
     <t>页面ID
-10:心理学院
-11:音频播放界面
-20:心理测评首页
-21:心理测评详情页
-30:心理咨询首页</t>
+1001 ：情绪调频(音频) 
+1002: 音频播放详情 
+1101: 心理测评首页 
+1102: 心理测评详情 
+1201: 心理咨询 
+1301: 活动圈
+1302: 活动圈详情
+1401: 陪伴互助
+1501: 改变锦囊首页
+1502: 改变锦囊详情
+1601: 企业入口
+1701 :跳转到URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +516,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -854,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -870,100 +877,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -1032,13 +1039,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1052,9 +1059,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
@@ -1064,9 +1071,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="10"/>
       <c r="E14" s="6" t="s">
         <v>21</v>
@@ -1076,8 +1083,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1092,8 +1099,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="26" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1128,10 +1135,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1140,24 +1147,24 @@
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
@@ -1180,10 +1187,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1192,48 +1199,48 @@
       <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
@@ -1276,10 +1283,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="120">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>10</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1288,36 +1295,36 @@
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4">
@@ -1340,10 +1347,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>12</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1352,72 +1359,72 @@
       <c r="D31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="60">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="97" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="60">
       <c r="A37" s="4">
@@ -1684,6 +1691,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
@@ -1694,30 +1725,6 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kanka/JS_API.xlsx
+++ b/kanka/JS_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-800" yWindow="0" windowWidth="24840" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>参数描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>json(user)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>音频相关信息(url必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,14 +382,6 @@
   </si>
   <si>
     <t>param:传入参数,为JSON字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内含cookies字段为cookieStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,6 +405,22 @@
 1502: 改变锦囊详情
 1601: 企业入口
 1701 :跳转到URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+user:{...},
+common:{...}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user:用户信息
+common:请求的公共参数(内含cookies字段为cookieStr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +492,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -519,10 +519,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -861,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -871,106 +880,106 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -992,63 +1001,61 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72" customHeight="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>87</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1059,10 +1066,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1071,10 +1078,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1083,8 +1090,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1099,8 +1106,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="26" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1125,138 +1132,138 @@
         <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8">
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="9">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="8">
-        <v>7</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="4" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
         <v>8</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
@@ -1267,177 +1274,177 @@
         <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="120">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>10</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4">
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>12</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>69</v>
+      <c r="B31" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="60">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" ht="97" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="60">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="97" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="60">
       <c r="A37" s="4">
         <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>5</v>

--- a/kanka/JS_API.xlsx
+++ b/kanka/JS_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-800" yWindow="0" windowWidth="24840" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -408,19 +408,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 user:{...},
-common:{...}
+common:{...},
+cookieStr:...
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>user:用户信息
-common:请求的公共参数(内含cookies字段为cookieStr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+common:请求的公共参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,19 +520,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -870,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -886,100 +887,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -1001,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="72" customHeight="1">
@@ -1017,11 +1018,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>87</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1046,16 +1047,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1066,10 +1067,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1078,10 +1079,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1090,8 +1091,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1106,8 +1107,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="26" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1142,10 +1143,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>5</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1154,24 +1155,24 @@
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4">
@@ -1194,10 +1195,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1206,48 +1207,48 @@
       <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
@@ -1290,10 +1291,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="120">
-      <c r="A27" s="9">
+      <c r="A27" s="12">
         <v>10</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1302,36 +1303,36 @@
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4">
@@ -1354,10 +1355,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="45">
-      <c r="A31" s="9">
+      <c r="A31" s="12">
         <v>12</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1366,72 +1367,72 @@
       <c r="D31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="60">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="97" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="60">
       <c r="A37" s="4">
@@ -1698,6 +1699,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:E5"/>
@@ -1708,30 +1733,6 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kanka/JS_API.xlsx
+++ b/kanka/JS_API.xlsx
@@ -412,16 +412,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user:用户信息
+common:请求的公共参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 user:{...},
 common:{...},
 cookieStr:...
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user:用户信息
-common:请求的公共参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1019,10 +1019,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="G10" s="1"/>
     </row>

--- a/kanka/JS_API.xlsx
+++ b/kanka/JS_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
